--- a/biology/Botanique/Cyclamen_à_feuilles_de_lierre/Cyclamen_à_feuilles_de_lierre.xlsx
+++ b/biology/Botanique/Cyclamen_à_feuilles_de_lierre/Cyclamen_à_feuilles_de_lierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclamen hederifolium Aiton (Syn. Cyclamen neapolitanum Ten.), le Cyclamen de Naples, est une espèce de plantes à fleurs de la famille des Primulaceae. Elle est originaire du nord du bassin méditerranéen, du sud-est de la France à la Turquie. On le rencontre aussi en Corse, en Sardaigne, en Sicile, en Crète et sur plusieurs autres îles grecques. Le cyclamen de Naples pousse dans des biotopes très variés : forêts, garrigues et rocailles, du niveau de la mer jusqu'à 1 300 m d'altitude. Cette espèce est par ailleurs naturalisée dans l'ouest de la France et en Grande-Bretagne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclamen hederifolium Aiton (Syn. Cyclamen neapolitanum Ten.), le Cyclamen de Naples, est une espèce de plantes à fleurs de la famille des Primulaceae. Elle est originaire du nord du bassin méditerranéen, du sud-est de la France à la Turquie. On le rencontre aussi en Corse, en Sardaigne, en Sicile, en Crète et sur plusieurs autres îles grecques. Le cyclamen de Naples pousse dans des biotopes très variés : forêts, garrigues et rocailles, du niveau de la mer jusqu'à 1 300 m d'altitude. Cette espèce est par ailleurs naturalisée dans l'ouest de la France et en Grande-Bretagne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France elle est classée comme non préoccupante .
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyclamen de Naples fleurit du mois d'août aux premières gelées.
 Les fleurs, généralement inodores, sont d'un rose plus ou moins profond, à gorge plus foncée. Les pétales ont à leur base une oreillette de chaque côté.
@@ -554,9 +570,6 @@
 			Une nouvelle feuille de cyclamen perce les feuilles d'automne tombées au sol aux Pays-Bas.
 			Les feuilles avec leur motif en « sapin de Noël ».
 			Cyclamen hederifolium après une averse de mars.
-Variété remarquable
-Cyclamen hederifolium var. confusum Grey-Wilson, une variété tétraploïde qu'on rencontre notamment au Péloponnèse, en Crète et en Sicile, a de plus grandes fleurs et des feuilles brillantes et plus épaisses. Cette variété a été récemment élevée au rang d'espèce : Cyclamen confusum (Grey-Wilson) Culham, Jope &amp; P. Moore.
-			Cyclamen confusum.
 </t>
         </is>
       </c>
@@ -567,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,14 +595,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variété remarquable</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclamen hederifolium var. confusum Grey-Wilson, une variété tétraploïde qu'on rencontre notamment au Péloponnèse, en Crète et en Sicile, a de plus grandes fleurs et des feuilles brillantes et plus épaisses. Cette variété a été récemment élevée au rang d'espèce : Cyclamen confusum (Grey-Wilson) Culham, Jope &amp; P. Moore.
+			Cyclamen confusum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclamen_%C3%A0_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen hederifolium est l'espèce la plus facile à cultiver. Ce cyclamen qui est bien rustique, ne craint par ailleurs pas la sécheresse estivale. Lorsqu'il s'est bien adapté, il est très florifère et produit des graines en abondance. Le cyclamen de Naples se naturalise facilement en sol moyen et bien drainé à mi-ombre.
-Variétés horticoles
-Certaines variétés parfumées, originaires notamment de Corfou, sont appelées ‘scented’.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclamen_%C3%A0_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés horticoles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines variétés parfumées, originaires notamment de Corfou, sont appelées ‘scented’.
 Cyclamen hederifolium f. albiflorum est une forme plus rare à fleurs blanches (à gorge souvent rosée), dont les meilleures sélections sont appelées ‘Album’. Cyclamen hederifolium ‘Album’, qui fleurit parfois déjà en juin, est une forme stable.
 De nombreux cultivars de Cyclamen hederifolium ont été sélectionnés pour leurs feuilles, leurs fleurs ou les deux. Voici quelques coups de cœur :
 ‘Amaze Me’ est une nouvelle variété rose foncé ou blanche à floraison précoce.
@@ -600,7 +688,7 @@
 ‘Ruby Glow’ a des fleurs d'un beau rouge.
 ‘Silver Cloud’ a des feuilles argentées.
 ‘White Cloud’ est une sélection du précédent à fleurs blanches.
-‘Stargazer’ a des fleurs dressées[3]
+‘Stargazer’ a des fleurs dressées
 			Cyclamen hederifolium &amp; Cyclamen hederifolium 'Album'.
 			Cyclamen hederifolium‘Amaze Me’.
 			Cyclamen hederifolium‘Amaze Me White’.
@@ -610,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyclamen_%C3%A0_feuilles_de_lierre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Cyclamen africanum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen africanum Boiss. &amp; Reut. (Syn. Cyclamen hederifolium subsp. africanum (Boiss. &amp; Reut.) Ietsw.) pousse dans les taillis et les anfractuosités des rochers dans le nord de l’Algérie et en Tunisie.
 Cyclamen africanum ressemble en plus grand à Cyclamen confusum.Les fleurs, dont les étamines ont des anthères jaunes (rouges chez C. hederifolium), sont portées sur des pédoncules de 10 à 20 cm.Les feuilles, qui peuvent atteindre 15 cm de diamètre, apparaissent après les premières fleurs.Certains taxons sont diploïdes, d'autres sont tétraploïdes.
@@ -644,31 +734,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cyclamen_%C3%A0_feuilles_de_lierre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyclamen_à_feuilles_de_lierre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyclamen_%C3%A0_feuilles_de_lierre</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen africanum n'est pas rustique et doit dès lors être cultivé en serre froide. Cyclamen africanum se croise facilement avec Cyclamen hederifolium et les exemplaires qu'on trouve en culture sont souvent des hybrides entre les deux espèces (Cyclamen ×hildebrandii O. Schwarz). Cet hybride très robuste est plus rustique et peut être cultivé en pleine terre en situation abritée.
 </t>
